--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/craftBetDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/craftBetDataBrokenIMGList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>219  Game Provider Name = NetEnt   Game Name =  Wild Wild West  cod = 404   src = https://resources.craftbet.com/products/cmodul/wild_wild_west.png</t>
   </si>
@@ -21,6 +21,141 @@
   </si>
   <si>
     <t>236  Game Provider Name = Evolution   Game Name =  First Person Deal or No Deal  cod = 404   src = https://resources.craftbet.com/products/evolution/fpdealornodeal.png</t>
+  </si>
+  <si>
+    <t>533  Game Provider Name = Microgaming   Game Name =  BankoftheNile  src = https://resources.{p}/products/BankoftheNile.jpg</t>
+  </si>
+  <si>
+    <t>647  Game Provider Name = Internal   Game Name =  Blockball88  cod = 403   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>734  Game Provider Name = Microgaming   Game Name =  BookOfSouls  src = https://resources.{p}/products/BookOfSouls.jpg</t>
+  </si>
+  <si>
+    <t>891  Game Provider Name = Microgaming   Game Name =  CheekyFruits6Deluxe  src = https://resources.{p}/products/CheekyFruits6Deluxe.jpg</t>
+  </si>
+  <si>
+    <t>980  Game Provider Name = Spadegaming   Game Name =  Crazy Bomber  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/511e9a63e901ce6057c3079ae4b38eb1d6861c48/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>1203  Game Provider Name = Microgaming   Game Name =  Dream3Team  src = https://resources.{p}/products/Dream3Team.jpg</t>
+  </si>
+  <si>
+    <t>1259  Game Provider Name = Microgaming   Game Name =  EliteofEvil:PortalofGold  src = https://resources.{p}/products/EliteofEvil:PortalofGold.jpg</t>
+  </si>
+  <si>
+    <t>1281  Game Provider Name = Microgaming   Game Name =  EternalShogi  src = https://resources.{p}/products/EternalShogi·jpg</t>
+  </si>
+  <si>
+    <t>1323  Game Provider Name = Spadegaming   Game Name =  FaFaFa2  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/799d8df7551bf19c6a767472e3050f56fb142d2c/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>1407  Game Provider Name = Microgaming   Game Name =  FootballStarDeluxe  src = https://resources.{p}/products/FootballStarDeluxe.jpg</t>
+  </si>
+  <si>
+    <t>1469  Game Provider Name = Microgaming   Game Name =  FruitPunchUp  src = https://resources.{p}/products/FruitPunchUp·jpg</t>
+  </si>
+  <si>
+    <t>1490  Game Provider Name = Microgaming   Game Name =  Fruitsand777's  src = https://resources.{p}/products/Fruitsand777's·jpg</t>
+  </si>
+  <si>
+    <t>1622  Game Provider Name = Spadegaming   Game Name =  Gold Rush Cowboy  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cf17d06e0ae231676cb648afbae7fe8f0b298a4b/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>1683  Game Provider Name = Microgaming   Game Name =  Goldilocks  src = https://resources.{p}/products/goldilocks.jpg</t>
+  </si>
+  <si>
+    <t>1748  Game Provider Name = Leander   Game Name =  Hattrick Heroes  cod = 403   src = https://static.egamings.com/games/leander/?attrick_?eroes.jpg</t>
+  </si>
+  <si>
+    <t>1853  Game Provider Name = Microgaming   Game Name =  HotInk  src = https://resources.{p}/products/hotink.jpeg</t>
+  </si>
+  <si>
+    <t>1972  Game Provider Name = Mr.Slotty   Game Name =  Joker Craze  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f84f15b152f307d24cf064bd4987df5e6427f814/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>1977  Game Provider Name = Mr.Slotty   Game Name =  Joker Factor  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/327e4768e6edaaa850d601843cf9cabeea552ac8/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>1978  Game Provider Name = Mr.Slotty   Game Name =  Joker Goes Wild  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5b2ad8708804b2e296e9559abe8ed3d09c2767c/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2072  Game Provider Name = Mr.Slotty   Game Name =  Kitty Bonus Jackpot  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/56d7da450c5f11ea53c146a2fabcaf157dbba883/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2101  Game Provider Name = Microgaming   Game Name =  LaraJonesisCleopatra  src = https://resources.{p}/products/LaraJonesisCleopatra·jpg</t>
+  </si>
+  <si>
+    <t>2241  Game Provider Name = Microgaming   Game Name =  LuckyRiches:Hyperspins  src = https://resources.{p}/products/LuckyRiches:Hyperspins.jpg</t>
+  </si>
+  <si>
+    <t>2288  Game Provider Name = Spadegaming   Game Name =  Magic Kitty  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5cb968017df8db2495ace71598bfe32d8f9955f/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2359  Game Provider Name = Spadegaming   Game Name =  Mega 7  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ae56a2a9e06c43b1077847c2f5c35f9d1d6775fd/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2373  Game Provider Name = Microgaming   Game Name =  Meganova  src = https://resources.{p}/products/Meganova·jpg</t>
+  </si>
+  <si>
+    <t>2400  Game Provider Name = Microgaming   Game Name =  MidnightMadness  src = https://resources.{p}/products/MidnightMadness.jpg</t>
+  </si>
+  <si>
+    <t>2436  Game Provider Name = Spadegaming   Game Name =  Money Mouse  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0dc4f451562ea4b390f1f9b6c7fa778a9f9065b8/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2481  Game Provider Name = Spadegaming   Game Name =  Muay Thai Fighter  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6903c69a3416bd408dd28828c8b656216ef65433/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2648  Game Provider Name = Microgaming   Game Name =  Pentagram5000  src = https://resources.{p}/products/Pentagram5000.jpg</t>
+  </si>
+  <si>
+    <t>2737  Game Provider Name = Microgaming   Game Name =  Popstar  src = https://resources.{p}/products/Popstar.jpg</t>
+  </si>
+  <si>
+    <t>2769  Game Provider Name = Spadegaming   Game Name =  Princess Wang  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6a47948940109d58710a8c2eb6ec6170735bb8c9/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2772  Game Provider Name = Spadegaming   Game Name =  Prosperity Gods  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/29f2535b075fead9654339a0efc710102f4c1d85/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2798  Game Provider Name = Mr.Slotty   Game Name =  Quarantine  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1007f113e39f2308b60476c817fec69521692182/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2945  Game Provider Name = Spadegaming   Game Name =  Rise Of Werewolves  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f6c2f4f46d353891cd80df0763a9a372a6d16667/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>2976  Game Provider Name = Microgaming   Game Name =  RomanPower  src = https://resources.{p}/products/RomanPower.jpg</t>
+  </si>
+  <si>
+    <t>3006  Game Provider Name = Spadegaming   Game Name =  Royale House  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/216fdd7ca621fd4c14b31c8c3cec63b02c5890cb/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>3031  Game Provider Name = Microgaming   Game Name =  SamanthaFox  src = https://resources.{p}/products/SamanthaFoxt·jpg</t>
+  </si>
+  <si>
+    <t>3288  Game Provider Name = Microgaming   Game Name =  SupeitUp  cod = 404   src = https://static.egamings.com/games/mg/supeitup.jpeg</t>
+  </si>
+  <si>
+    <t>3292  Game Provider Name = Microgaming   Game Name =  SuperBarXPullTab  src = https://resources.{p}/products/SuperBarXPullTab.jpg</t>
+  </si>
+  <si>
+    <t>3324  Game Provider Name = Microgaming   Game Name =  SuperSync  src = https://resources.{p}/products/SuperSync.jpg</t>
+  </si>
+  <si>
+    <t>3374  Game Provider Name = Microgaming   Game Name =  Terminator2  cod = 404   src = https://static.egamings.com/games/mg/Terminator2.jpg</t>
+  </si>
+  <si>
+    <t>3493  Game Provider Name = Spadegaming   Game Name =  Three Lucky Stars  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2262ea2e3f9596ea486d67c6f25cbcea0e189564/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>3773  Game Provider Name = Microgaming   Game Name =  WildReels  src = https://resources.{p}/products/WildReelse.jpg</t>
+  </si>
+  <si>
+    <t>3886  Game Provider Name = Spadegaming   Game Name =  ZEUS  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f4c5f974a675b87ac218705e3b87c4f405c45bf/Games Catalog image/image.png</t>
+  </si>
+  <si>
+    <t>3898  Game Provider Name = Spadegaming   Game Name =  Zombie party  cod = 404   src = https://resources.craftbet.com/products/https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/df1b83293924d98d48dd09c77cb8ba69c53d73bd/Games Catalog image/image.png</t>
   </si>
 </sst>
 </file>
@@ -65,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -89,6 +224,231 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
